--- a/IBD_data/IBD.xlsx
+++ b/IBD_data/IBD.xlsx
@@ -9,11 +9,12 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="700" yWindow="460" windowWidth="19100" windowHeight="15820" activeTab="1"/>
+    <workbookView xWindow="700" yWindow="460" windowWidth="19100" windowHeight="15820" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913" concurrentCalc="0"/>
   <extLst>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="13">
   <si>
     <t>Group 1 = Disease subtype; (1=non-IBD, 2=CD, 3=UC)</t>
   </si>
@@ -1532,8 +1533,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D30" sqref="D30"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:F24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1556,7 +1557,9 @@
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A2" s="6"/>
+      <c r="A2" s="6">
+        <v>1</v>
+      </c>
       <c r="B2" s="7">
         <v>2.108460242428619E-2</v>
       </c>
@@ -1574,7 +1577,9 @@
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A3" s="6"/>
+      <c r="A3" s="6">
+        <v>1</v>
+      </c>
       <c r="B3" s="7">
         <v>2.4343271494125414E-2</v>
       </c>
@@ -1592,7 +1597,9 @@
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A4" s="6"/>
+      <c r="A4" s="6">
+        <v>1</v>
+      </c>
       <c r="B4" s="7">
         <v>2.630838296834774E-2</v>
       </c>
@@ -1610,7 +1617,9 @@
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A5" s="6"/>
+      <c r="A5" s="6">
+        <v>1</v>
+      </c>
       <c r="B5" s="7">
         <v>5.8123382394665848E-3</v>
       </c>
@@ -1628,7 +1637,9 @@
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A6" s="6"/>
+      <c r="A6" s="6">
+        <v>1</v>
+      </c>
       <c r="B6" s="8">
         <v>8.7126904946160533E-3</v>
       </c>
@@ -1646,7 +1657,9 @@
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A7" s="6"/>
+      <c r="A7" s="6">
+        <v>1</v>
+      </c>
       <c r="B7" s="7">
         <v>3.6038102455568675E-2</v>
       </c>
@@ -1664,7 +1677,9 @@
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A8" s="6"/>
+      <c r="A8" s="6">
+        <v>1</v>
+      </c>
       <c r="B8" s="7">
         <v>1.184700901702555E-2</v>
       </c>
@@ -1682,7 +1697,9 @@
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A9" s="6"/>
+      <c r="A9" s="6">
+        <v>1</v>
+      </c>
       <c r="B9" s="7">
         <v>2.2286803961943186E-2</v>
       </c>
@@ -1700,7 +1717,9 @@
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A10" s="6"/>
+      <c r="A10" s="6">
+        <v>2</v>
+      </c>
       <c r="B10" s="11">
         <v>1.070924481703581E-2</v>
       </c>
@@ -1718,7 +1737,9 @@
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A11" s="6"/>
+      <c r="A11" s="6">
+        <v>2</v>
+      </c>
       <c r="B11" s="11">
         <v>2.9063124220227048E-2</v>
       </c>
@@ -1736,7 +1757,9 @@
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A12" s="6"/>
+      <c r="A12" s="6">
+        <v>2</v>
+      </c>
       <c r="B12" s="11">
         <v>3.9516377420986777E-3</v>
       </c>
@@ -1754,7 +1777,9 @@
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A13" s="6"/>
+      <c r="A13" s="6">
+        <v>2</v>
+      </c>
       <c r="B13" s="11">
         <v>2.2765619662304861E-2</v>
       </c>
@@ -1772,7 +1797,9 @@
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A14" s="6"/>
+      <c r="A14" s="6">
+        <v>2</v>
+      </c>
       <c r="B14" s="11">
         <v>8.1235886628158969E-3</v>
       </c>
@@ -1790,7 +1817,9 @@
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A15" s="6"/>
+      <c r="A15" s="6">
+        <v>2</v>
+      </c>
       <c r="B15" s="11">
         <v>7.7531608992743011E-3</v>
       </c>
@@ -1808,7 +1837,9 @@
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A16" s="6"/>
+      <c r="A16" s="6">
+        <v>2</v>
+      </c>
       <c r="B16" s="11">
         <v>3.1061283056111849E-3</v>
       </c>
@@ -1826,7 +1857,9 @@
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A17" s="6"/>
+      <c r="A17" s="6">
+        <v>2</v>
+      </c>
       <c r="B17" s="11">
         <v>3.6556232650996863E-3</v>
       </c>
@@ -1844,7 +1877,9 @@
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A18" s="6"/>
+      <c r="A18" s="6">
+        <v>3</v>
+      </c>
       <c r="B18" s="11">
         <v>4.851003871719572E-3</v>
       </c>
@@ -1862,7 +1897,9 @@
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A19" s="6"/>
+      <c r="A19" s="6">
+        <v>3</v>
+      </c>
       <c r="B19" s="11">
         <v>4.4881416137347143E-3</v>
       </c>
@@ -1880,7 +1917,9 @@
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A20" s="6"/>
+      <c r="A20" s="6">
+        <v>3</v>
+      </c>
       <c r="B20" s="11">
         <v>7.7406315649727227E-3</v>
       </c>
@@ -1898,7 +1937,9 @@
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A21" s="6"/>
+      <c r="A21" s="6">
+        <v>3</v>
+      </c>
       <c r="B21" s="11">
         <v>3.4100286670494511E-3</v>
       </c>
@@ -1916,7 +1957,9 @@
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A22" s="6"/>
+      <c r="A22" s="6">
+        <v>3</v>
+      </c>
       <c r="B22" s="11">
         <v>4.0188562333846826E-3</v>
       </c>
@@ -1934,7 +1977,9 @@
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A23" s="6"/>
+      <c r="A23" s="6">
+        <v>3</v>
+      </c>
       <c r="B23" s="11">
         <v>4.2001804544590619E-3</v>
       </c>
@@ -1952,7 +1997,9 @@
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A24" s="6"/>
+      <c r="A24" s="6">
+        <v>3</v>
+      </c>
       <c r="B24" s="12">
         <v>1.355529270359478E-2</v>
       </c>
@@ -1966,6 +2013,429 @@
         <v>5.487381354723278E-3</v>
       </c>
       <c r="F24" s="11">
+        <v>6.9758994952943834E-4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E24"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:E24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" s="7">
+        <v>2.108460242428619E-2</v>
+      </c>
+      <c r="B2" s="7">
+        <v>3.8558419752191968E-4</v>
+      </c>
+      <c r="C2" s="7">
+        <v>2.3550931228552888E-3</v>
+      </c>
+      <c r="D2" s="7">
+        <v>8.1329808304842835E-3</v>
+      </c>
+      <c r="E2" s="7">
+        <v>4.9122321244000032E-4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" s="7">
+        <v>2.4343271494125414E-2</v>
+      </c>
+      <c r="B3" s="7">
+        <v>8.7364443239809056E-4</v>
+      </c>
+      <c r="C3" s="7">
+        <v>2.1279314613490245E-3</v>
+      </c>
+      <c r="D3" s="7">
+        <v>9.01369154505045E-3</v>
+      </c>
+      <c r="E3" s="7">
+        <v>4.9315668985129481E-4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" s="7">
+        <v>2.630838296834774E-2</v>
+      </c>
+      <c r="B4" s="7">
+        <v>3.4019894925944205E-4</v>
+      </c>
+      <c r="C4" s="7">
+        <v>1.7868900612636783E-3</v>
+      </c>
+      <c r="D4" s="7">
+        <v>7.2022643590069959E-3</v>
+      </c>
+      <c r="E4" s="7">
+        <v>1.6193096664289763E-4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" s="7">
+        <v>5.8123382394665848E-3</v>
+      </c>
+      <c r="B5" s="7">
+        <v>2.0932039597835173E-4</v>
+      </c>
+      <c r="C5" s="7">
+        <v>9.3981680169115682E-4</v>
+      </c>
+      <c r="D5" s="7">
+        <v>3.4448759068961702E-3</v>
+      </c>
+      <c r="E5" s="7">
+        <v>9.7764335514011371E-5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" s="8">
+        <v>8.7126904946160533E-3</v>
+      </c>
+      <c r="B6" s="7">
+        <v>2.9684557416852659E-4</v>
+      </c>
+      <c r="C6" s="7">
+        <v>1.5952528412432104E-3</v>
+      </c>
+      <c r="D6" s="7">
+        <v>4.726540244190499E-3</v>
+      </c>
+      <c r="E6" s="7">
+        <v>2.6970438256115068E-4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" s="7">
+        <v>3.6038102455568675E-2</v>
+      </c>
+      <c r="B7" s="7">
+        <v>1.3111064219806232E-3</v>
+      </c>
+      <c r="C7" s="7">
+        <v>2.1887668178481022E-3</v>
+      </c>
+      <c r="D7" s="7">
+        <v>1.0618082067256908E-2</v>
+      </c>
+      <c r="E7" s="7">
+        <v>1.2737812058616182E-3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" s="7">
+        <v>1.184700901702555E-2</v>
+      </c>
+      <c r="B8" s="7">
+        <v>6.4090838146584105E-3</v>
+      </c>
+      <c r="C8" s="7">
+        <v>1.7989029025697227E-3</v>
+      </c>
+      <c r="D8" s="7">
+        <v>8.0395634524163036E-3</v>
+      </c>
+      <c r="E8" s="7">
+        <v>1.452076980443285E-3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" s="7">
+        <v>2.2286803961943186E-2</v>
+      </c>
+      <c r="B9" s="7">
+        <v>4.0653510197970487E-4</v>
+      </c>
+      <c r="C9" s="7">
+        <v>2.7278896244719553E-3</v>
+      </c>
+      <c r="D9" s="7">
+        <v>1.485405547408006E-2</v>
+      </c>
+      <c r="E9" s="7">
+        <v>4.1335427926454422E-4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" s="11">
+        <v>1.070924481703581E-2</v>
+      </c>
+      <c r="B10" s="11">
+        <v>5.6205581397758726E-4</v>
+      </c>
+      <c r="C10" s="11">
+        <v>2.4285892706623798E-3</v>
+      </c>
+      <c r="D10" s="11">
+        <v>8.6205810783819784E-3</v>
+      </c>
+      <c r="E10" s="7">
+        <v>5.2599406332441831E-4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11" s="11">
+        <v>2.9063124220227048E-2</v>
+      </c>
+      <c r="B11" s="11">
+        <v>4.8737939872524669E-4</v>
+      </c>
+      <c r="C11" s="11">
+        <v>1.3916379859727646E-3</v>
+      </c>
+      <c r="D11" s="11">
+        <v>4.0468075560192223E-3</v>
+      </c>
+      <c r="E11" s="7">
+        <v>6.6283106870372282E-5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12" s="11">
+        <v>3.9516377420986777E-3</v>
+      </c>
+      <c r="B12" s="11">
+        <v>1.230960030878191E-3</v>
+      </c>
+      <c r="C12" s="11">
+        <v>8.7829882021347983E-4</v>
+      </c>
+      <c r="D12" s="11">
+        <v>3.4873163458120078E-3</v>
+      </c>
+      <c r="E12" s="7">
+        <v>3.0336315864542911E-4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13" s="11">
+        <v>2.2765619662304861E-2</v>
+      </c>
+      <c r="B13" s="11">
+        <v>1.3911096410798443E-6</v>
+      </c>
+      <c r="C13" s="11">
+        <v>1.2574063078010112E-3</v>
+      </c>
+      <c r="D13" s="11">
+        <v>5.6455634392457987E-3</v>
+      </c>
+      <c r="E13" s="7">
+        <v>5.3568271163048913E-4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A14" s="11">
+        <v>8.1235886628158969E-3</v>
+      </c>
+      <c r="B14" s="11">
+        <v>2.3649078835129142E-3</v>
+      </c>
+      <c r="C14" s="11">
+        <v>2.3377439815617375E-3</v>
+      </c>
+      <c r="D14" s="11">
+        <v>6.1650665731791503E-3</v>
+      </c>
+      <c r="E14" s="8">
+        <v>7.8646441936907263E-4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A15" s="11">
+        <v>7.7531608992743011E-3</v>
+      </c>
+      <c r="B15" s="7">
+        <v>7.1604267657890603E-4</v>
+      </c>
+      <c r="C15" s="7">
+        <v>2.5534565962041711E-3</v>
+      </c>
+      <c r="D15" s="7">
+        <v>1.0808675549381655E-2</v>
+      </c>
+      <c r="E15" s="7">
+        <v>7.5564686294091795E-4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A16" s="11">
+        <v>3.1061283056111849E-3</v>
+      </c>
+      <c r="B16" s="11">
+        <v>5.5701349386353392E-4</v>
+      </c>
+      <c r="C16" s="11">
+        <v>9.6467736554029079E-4</v>
+      </c>
+      <c r="D16" s="11">
+        <v>4.8538105383268632E-3</v>
+      </c>
+      <c r="E16" s="7">
+        <v>3.4090717041608266E-4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A17" s="11">
+        <v>3.6556232650996863E-3</v>
+      </c>
+      <c r="B17" s="11">
+        <v>4.4191975255720066E-3</v>
+      </c>
+      <c r="C17" s="11">
+        <v>1.3924419247978864E-3</v>
+      </c>
+      <c r="D17" s="11">
+        <v>1.2042953510024032E-2</v>
+      </c>
+      <c r="E17" s="7">
+        <v>3.3254400618291496E-4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A18" s="11">
+        <v>4.851003871719572E-3</v>
+      </c>
+      <c r="B18" s="11">
+        <v>5.3139495414658497E-3</v>
+      </c>
+      <c r="C18" s="12">
+        <v>1.3129248406359634E-3</v>
+      </c>
+      <c r="D18" s="11">
+        <v>5.0029628110610158E-3</v>
+      </c>
+      <c r="E18" s="11">
+        <v>7.1861114551966193E-4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A19" s="11">
+        <v>4.4881416137347143E-3</v>
+      </c>
+      <c r="B19" s="11">
+        <v>7.0981873139289364E-3</v>
+      </c>
+      <c r="C19" s="12">
+        <v>2.6028959257934879E-3</v>
+      </c>
+      <c r="D19" s="11">
+        <v>7.7067267984840468E-3</v>
+      </c>
+      <c r="E19" s="11">
+        <v>9.3764740761738028E-4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A20" s="11">
+        <v>7.7406315649727227E-3</v>
+      </c>
+      <c r="B20" s="11">
+        <v>4.8403725296592278E-3</v>
+      </c>
+      <c r="C20" s="12">
+        <v>1.5123423951200151E-3</v>
+      </c>
+      <c r="D20" s="11">
+        <v>4.7539224892887387E-3</v>
+      </c>
+      <c r="E20" s="11">
+        <v>4.9406901374625368E-4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A21" s="11">
+        <v>3.4100286670494511E-3</v>
+      </c>
+      <c r="B21" s="11">
+        <v>1.4317534291992506E-3</v>
+      </c>
+      <c r="C21" s="11">
+        <v>1.2196356955074192E-3</v>
+      </c>
+      <c r="D21" s="11">
+        <v>4.8002749682722204E-3</v>
+      </c>
+      <c r="E21" s="11">
+        <v>4.1287692750653366E-4</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A22" s="11">
+        <v>4.0188562333846826E-3</v>
+      </c>
+      <c r="B22" s="11">
+        <v>2.2306304536832827E-3</v>
+      </c>
+      <c r="C22" s="11">
+        <v>1.7081689311763369E-3</v>
+      </c>
+      <c r="D22" s="11">
+        <v>5.4005939374824402E-3</v>
+      </c>
+      <c r="E22" s="11">
+        <v>6.4429094366374811E-4</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A23" s="11">
+        <v>4.2001804544590619E-3</v>
+      </c>
+      <c r="B23" s="11">
+        <v>3.8533633992420334E-3</v>
+      </c>
+      <c r="C23" s="11">
+        <v>1.9685278378576226E-3</v>
+      </c>
+      <c r="D23" s="11">
+        <v>6.7901847779113424E-3</v>
+      </c>
+      <c r="E23" s="11">
+        <v>9.9478104687577185E-4</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A24" s="12">
+        <v>1.355529270359478E-2</v>
+      </c>
+      <c r="B24" s="11">
+        <v>1.7102293048232464E-2</v>
+      </c>
+      <c r="C24" s="11">
+        <v>3.3290667694408486E-3</v>
+      </c>
+      <c r="D24" s="11">
+        <v>5.487381354723278E-3</v>
+      </c>
+      <c r="E24" s="11">
         <v>6.9758994952943834E-4</v>
       </c>
     </row>
